--- a/ConfigData/Excel2Lua/excel/Hero.xlsx
+++ b/ConfigData/Excel2Lua/excel/Hero.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="17805" windowHeight="12195"/>
+    <workbookView windowWidth="23190" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>英雄信息表</t>
   </si>
@@ -80,9 +80,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>0.8</t>
-  </si>
-  <si>
     <t>bool</t>
   </si>
   <si>
@@ -95,15 +92,6 @@
     <t>剑客是xxxx职业</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
@@ -116,24 +104,12 @@
     <t>法师是xxxx职业</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
     <t>圣骑</t>
   </si>
   <si>
     <t>圣骑是xxxx职业</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
@@ -144,9 +120,6 @@
   </si>
   <si>
     <t>刺客是xxxx职业</t>
-  </si>
-  <si>
-    <t>15</t>
   </si>
 </sst>
 </file>
@@ -155,9 +128,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -182,6 +155,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -189,43 +207,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,19 +238,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -272,7 +285,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,47 +293,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,19 +320,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,163 +500,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,6 +538,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -590,6 +583,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -600,17 +608,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,30 +626,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -661,10 +634,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -673,137 +646,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -820,6 +793,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1209,7 +1188,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1311,17 +1290,17 @@
       <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
+      <c r="F4" s="6">
+        <v>0.8</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1329,28 +1308,28 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
+      <c r="D5" s="7">
+        <v>11</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>28</v>
+      <c r="F5" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="G5" s="7">
+        <v>100</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1358,28 +1337,28 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
+      </c>
+      <c r="D6" s="7">
+        <v>10</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>28</v>
+      <c r="F6" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G6" s="7">
+        <v>100</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1387,28 +1366,28 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="D7" s="7">
+        <v>8</v>
       </c>
       <c r="E7" s="2">
         <v>3</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>28</v>
+      <c r="F7" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="G7" s="7">
+        <v>100</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1416,19 +1395,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+      <c r="D8" s="7">
+        <v>15</v>
       </c>
       <c r="E8" s="2">
         <v>4</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>28</v>
+      <c r="G8" s="7">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigData/Excel2Lua/excel/Hero.xlsx
+++ b/ConfigData/Excel2Lua/excel/Hero.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23190" windowHeight="11670"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>英雄信息表</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>float</t>
   </si>
   <si>
     <t>bool</t>
@@ -127,9 +130,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -155,6 +158,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -163,68 +248,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,7 +273,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,40 +281,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -320,19 +323,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,31 +431,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,121 +461,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,26 +535,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -573,10 +556,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -593,21 +611,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,10 +637,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -646,133 +649,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1188,7 +1191,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1290,17 +1293,17 @@
       <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="6">
-        <v>0.8</v>
+      <c r="F4" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1308,10 +1311,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7">
         <v>11</v>
@@ -1326,10 +1329,10 @@
         <v>100</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1337,10 +1340,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7">
         <v>10</v>
@@ -1355,10 +1358,10 @@
         <v>100</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1366,10 +1369,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" s="7">
         <v>8</v>
@@ -1384,10 +1387,10 @@
         <v>100</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1395,16 +1398,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" s="7">
         <v>15</v>
       </c>
       <c r="E8" s="2">
         <v>4</v>
+      </c>
+      <c r="F8" s="7">
+        <v>20.3</v>
       </c>
       <c r="G8" s="7">
         <v>100</v>
